--- a/datasets/Number of Establishments.xlsx
+++ b/datasets/Number of Establishments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jematanevar\Documents\New Data Rep\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8F18BF-36A3-48A1-A853-9A95705C08E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709710A3-C975-404B-BA98-DAEA3FB85031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,1216 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="D1502" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1503" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1504" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1505" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1506" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1507" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1508" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1509" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1510" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1511" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1512" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1513" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1514" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1515" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1516" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1517" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1518" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1519" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1520" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1521" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1522" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1523" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1524" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1525" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1526" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1527" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1528" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1529" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1530" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1531" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1532" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1533" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1534" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1535" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1536" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1537" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1538" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1539" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1540" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1541" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1542" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1543" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1544" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1545" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1546" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1547" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1548" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1549" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1550" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1551" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1552" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1553" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1554" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1555" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1556" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1557" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1558" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1559" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1560" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1561" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1562" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1563" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1564" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1565" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1566" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1567" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1568" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1569" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1570" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1571" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1572" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1573" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1574" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1575" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1576" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1577" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1578" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1579" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1580" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1581" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1316,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,13 +126,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1664,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1581"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A1483" workbookViewId="0">
+      <selection activeCell="Q1498" sqref="Q1498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23812,6 +22595,5 @@
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>